--- a/resources/cosmed_fields.xlsx
+++ b/resources/cosmed_fields.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\XNATConnect\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\XNAT\scripts\XNATConnect\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cosmed" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,10 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -868,8 +870,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1220,12 +1250,12 @@
       <selection activeCell="B1" sqref="B1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -1242,7 +1272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -1259,7 +1289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -1276,7 +1306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1293,7 +1323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -1310,7 +1340,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -1327,7 +1357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -1353,20 +1383,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -1397,7 +1427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>138</v>
       </c>
@@ -1417,7 +1447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>LOWER(C3)</f>
         <v>t</v>
@@ -1451,7 +1481,7 @@
         <v>1.4583333333333301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A32" si="0">LOWER(C4)</f>
         <v>speed</v>
@@ -1485,7 +1515,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>grade</v>
@@ -1519,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>rpe</v>
@@ -1550,7 +1580,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1562,7 +1592,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>155</v>
       </c>
@@ -1572,7 +1602,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>138</v>
       </c>
@@ -1586,7 +1616,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>vo2</v>
@@ -1620,7 +1650,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -1653,7 +1683,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>mets</v>
@@ -1687,7 +1717,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>rq</v>
@@ -1721,7 +1751,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1733,7 +1763,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
         <v>167</v>
       </c>
@@ -1743,7 +1773,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>138</v>
       </c>
@@ -1757,7 +1787,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>hr</v>
@@ -1788,7 +1818,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>sbp</v>
@@ -1819,7 +1849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>dbp</v>
@@ -1850,7 +1880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>o2pulse</v>
@@ -1881,7 +1911,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>sv</v>
@@ -1912,7 +1942,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>co</v>
@@ -1943,7 +1973,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1954,7 +1984,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>214</v>
       </c>
@@ -1963,7 +1993,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -1985,7 +2015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -2007,7 +2037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>oues</v>
@@ -2030,7 +2060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2041,7 +2071,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
         <v>195</v>
       </c>
@@ -2050,7 +2080,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>hrr1</v>
@@ -2080,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>hrr3</v>
@@ -2110,7 +2140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>hrr5</v>
@@ -2150,16 +2180,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -2167,7 +2197,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2175,7 +2205,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -2191,7 +2221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -2199,7 +2229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -2215,7 +2245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -2223,7 +2253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -2231,7 +2261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -2239,7 +2269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -2247,7 +2277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -2255,7 +2285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -2263,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -2271,7 +2301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>233</v>
       </c>
@@ -2279,7 +2309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -2287,7 +2317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -2303,28 +2333,28 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>236</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2340,13 +2370,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2354,7 +2384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2378,7 +2408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2448,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2456,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2450,7 +2480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2458,7 +2488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2504,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2506,7 +2536,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2514,7 +2544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2522,7 +2552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2546,7 +2576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2562,7 +2592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2570,7 +2600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +2616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -2594,7 +2624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2602,7 +2632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2610,7 +2640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -2618,7 +2648,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2626,7 +2656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2634,7 +2664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2642,7 +2672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2658,7 +2688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2666,7 +2696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2674,7 +2704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -2682,7 +2712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -2690,7 +2720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2698,7 +2728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +2736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2714,7 +2744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2722,7 +2752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,7 +2760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2746,7 +2776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2754,7 +2784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2762,7 +2792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -2770,7 +2800,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2778,7 +2808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -2786,7 +2816,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +2824,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -2818,7 +2848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2826,7 +2856,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2834,7 +2864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2842,7 +2872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -2850,7 +2880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -2858,7 +2888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,7 +2896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -2874,7 +2904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -2882,7 +2912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2890,7 +2920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,7 +2928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -2906,7 +2936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2914,7 +2944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -2930,7 +2960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -2938,7 +2968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -2954,7 +2984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -2962,7 +2992,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -2970,7 +3000,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2978,7 +3008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -2986,7 +3016,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2994,7 +3024,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -3002,7 +3032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -3018,7 +3048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -3026,7 +3056,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -3034,7 +3064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -3042,7 +3072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -3050,7 +3080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,7 +3088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -3074,7 +3104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -3082,7 +3112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -3099,111 +3129,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>193</v>
       </c>

--- a/resources/cosmed_fields.xlsx
+++ b/resources/cosmed_fields.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -720,9 +720,6 @@
     <t>rq</t>
   </si>
   <si>
-    <t xml:space="preserve">hr </t>
-  </si>
-  <si>
     <t>sbp</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>AxD</t>
+  </si>
+  <si>
+    <t>hr</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2103,7 @@
         <v>198</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30">
         <f>[1]Data!$X$45-[1]Data!$X$47</f>
@@ -2133,7 +2133,7 @@
         <v>201</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <f>[1]Data!$X$45-[1]Data!$X$51</f>
@@ -2163,7 +2163,7 @@
         <v>204</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I32">
         <f>[1]Data!$X$45-[1]Data!$X$55</f>
@@ -2181,7 +2181,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>193</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>196</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>199</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>202</v>
@@ -3140,37 +3140,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -3180,17 +3180,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
@@ -3200,17 +3200,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -3220,17 +3220,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">

--- a/resources/cosmed_fields.xlsx
+++ b/resources/cosmed_fields.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="250">
   <si>
     <t>VT</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>hr</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -2178,183 +2181,247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>205</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>229</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>211</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>233</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>235</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
